--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_AppropriationNumberProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_AppropriationNumberProfile_Regression_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E8799-19CF-4A6F-83F2-E6338B5BEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B5FCB-0674-467A-8C41-76282DB34A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>TC_SM_COA_DeleteProfile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,22 +746,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -766,8 +772,8 @@
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -776,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -784,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -796,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -804,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -824,31 +830,31 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
@@ -856,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -864,18 +870,38 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
     </row>
